--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\fmh_android_15_03_24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D380447E-2F9D-47AD-98A2-0776095A87F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD7DA4E-1C64-436F-925E-BF2FA8915F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B09D6ADB-7865-4B09-A090-B34DB560C0E3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="213">
   <si>
     <t>ID</t>
   </si>
@@ -670,13 +670,16 @@
   </si>
   <si>
     <t>10. Выскочит сообщение об ошибке (попытка отфильтровать одновременно активные и неактивные новости - нарушение логики)</t>
+  </si>
+  <si>
+    <t>не понятно как интегрировать R.raw определенной картинки для сопоставления наименования категории и картинки этой категории в тест</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -692,8 +695,17 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -730,8 +742,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -791,11 +815,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -842,13 +875,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1163,10 +1210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC63BC7E-7EFB-402A-AF25-47D1DCD9F8FD}">
-  <dimension ref="A1:H339"/>
+  <dimension ref="A1:I339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="L66" sqref="L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,7 +1223,7 @@
     <col min="3" max="3" width="24.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="6" max="6" width="47.85546875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="47.85546875" customWidth="1"/>
     <col min="7" max="7" width="49.140625" customWidth="1"/>
     <col min="8" max="8" width="19.140625" customWidth="1"/>
   </cols>
@@ -1223,13 +1270,13 @@
       <c r="E2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
@@ -1237,13 +1284,13 @@
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
@@ -1251,13 +1298,13 @@
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="12"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
@@ -1275,13 +1322,13 @@
       <c r="E5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
@@ -1289,13 +1336,13 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
@@ -1303,13 +1350,13 @@
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
@@ -1327,13 +1374,13 @@
       <c r="E8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="10"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
@@ -1341,13 +1388,13 @@
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="11"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
@@ -1355,13 +1402,13 @@
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -1379,13 +1426,13 @@
       <c r="E11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="10"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
@@ -1393,13 +1440,13 @@
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="11"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
@@ -1407,13 +1454,13 @@
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="11"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
@@ -1421,13 +1468,13 @@
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="12"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
@@ -1445,13 +1492,13 @@
       <c r="E15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="10"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
@@ -1459,13 +1506,13 @@
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="11"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
@@ -1473,13 +1520,13 @@
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="11"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
@@ -1487,13 +1534,13 @@
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="11"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
@@ -1501,13 +1548,13 @@
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="12"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
@@ -1525,13 +1572,13 @@
       <c r="E20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="10"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
@@ -1539,13 +1586,13 @@
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="11"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -1553,13 +1600,13 @@
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="11"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
@@ -1567,13 +1614,13 @@
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="11"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
@@ -1581,13 +1628,13 @@
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H24" s="12"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
@@ -1605,13 +1652,13 @@
       <c r="E25" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="10"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
@@ -1619,13 +1666,13 @@
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="11"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
@@ -1633,13 +1680,13 @@
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="11"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
@@ -1647,13 +1694,13 @@
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="11"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
@@ -1661,13 +1708,13 @@
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="12"/>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
@@ -1685,13 +1732,13 @@
       <c r="E30" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="10"/>
+      <c r="H30" s="16"/>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
@@ -1699,13 +1746,13 @@
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
-      <c r="F31" s="16" t="s">
+      <c r="F31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="11"/>
+      <c r="H31" s="17"/>
     </row>
     <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
@@ -1713,13 +1760,13 @@
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="11"/>
+      <c r="H32" s="17"/>
     </row>
     <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
@@ -1727,13 +1774,13 @@
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="8" t="s">
         <v>46</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H33" s="12"/>
+      <c r="H33" s="18"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
@@ -1751,13 +1798,13 @@
       <c r="E34" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="10"/>
+      <c r="H34" s="16"/>
     </row>
     <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
@@ -1765,13 +1812,13 @@
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="11"/>
+      <c r="H35" s="17"/>
     </row>
     <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
@@ -1779,13 +1826,13 @@
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="11"/>
+      <c r="H36" s="17"/>
     </row>
     <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
@@ -1793,13 +1840,13 @@
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="11"/>
+      <c r="H37" s="17"/>
     </row>
     <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
@@ -1807,13 +1854,13 @@
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
-      <c r="F38" s="16" t="s">
+      <c r="F38" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="11"/>
+      <c r="H38" s="17"/>
     </row>
     <row r="39" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
@@ -1821,13 +1868,13 @@
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
-      <c r="F39" s="16" t="s">
+      <c r="F39" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H39" s="11"/>
+      <c r="H39" s="17"/>
     </row>
     <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
@@ -1835,13 +1882,13 @@
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H40" s="11"/>
+      <c r="H40" s="17"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
@@ -1849,13 +1896,13 @@
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
-      <c r="F41" s="16" t="s">
+      <c r="F41" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H41" s="11"/>
+      <c r="H41" s="17"/>
     </row>
     <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
@@ -1863,13 +1910,13 @@
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H42" s="11"/>
+      <c r="H42" s="17"/>
     </row>
     <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
@@ -1877,13 +1924,13 @@
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H43" s="11"/>
+      <c r="H43" s="17"/>
     </row>
     <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
@@ -1891,13 +1938,13 @@
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
-      <c r="F44" s="16" t="s">
+      <c r="F44" s="1" t="s">
         <v>60</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H44" s="11"/>
+      <c r="H44" s="17"/>
     </row>
     <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
@@ -1905,13 +1952,13 @@
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
-      <c r="F45" s="16" t="s">
+      <c r="F45" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H45" s="11"/>
+      <c r="H45" s="17"/>
     </row>
     <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
@@ -1919,13 +1966,13 @@
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="1" t="s">
         <v>64</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H46" s="12"/>
+      <c r="H46" s="18"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
@@ -1943,13 +1990,13 @@
       <c r="E47" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="F47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H47" s="10"/>
+      <c r="H47" s="16"/>
     </row>
     <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
@@ -1957,13 +2004,13 @@
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
-      <c r="F48" s="16" t="s">
+      <c r="F48" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H48" s="11"/>
+      <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
@@ -1971,13 +2018,13 @@
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
-      <c r="F49" s="16" t="s">
+      <c r="F49" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H49" s="11"/>
+      <c r="H49" s="17"/>
     </row>
     <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
@@ -1985,13 +2032,13 @@
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
-      <c r="F50" s="16" t="s">
+      <c r="F50" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H50" s="11"/>
+      <c r="H50" s="17"/>
     </row>
     <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
@@ -1999,13 +2046,13 @@
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
-      <c r="F51" s="16" t="s">
+      <c r="F51" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H51" s="11"/>
+      <c r="H51" s="17"/>
     </row>
     <row r="52" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
@@ -2013,13 +2060,13 @@
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
-      <c r="F52" s="16" t="s">
+      <c r="F52" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H52" s="11"/>
+      <c r="H52" s="17"/>
     </row>
     <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
@@ -2027,13 +2074,13 @@
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
-      <c r="F53" s="16" t="s">
+      <c r="F53" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H53" s="11"/>
+      <c r="H53" s="17"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
@@ -2041,13 +2088,13 @@
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
-      <c r="F54" s="16" t="s">
+      <c r="F54" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H54" s="11"/>
+      <c r="H54" s="17"/>
     </row>
     <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
@@ -2055,13 +2102,13 @@
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
-      <c r="F55" s="16" t="s">
+      <c r="F55" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H55" s="11"/>
+      <c r="H55" s="17"/>
     </row>
     <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
@@ -2069,13 +2116,13 @@
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
-      <c r="F56" s="16" t="s">
+      <c r="F56" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H56" s="11"/>
+      <c r="H56" s="17"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
@@ -2083,13 +2130,13 @@
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
-      <c r="F57" s="16" t="s">
+      <c r="F57" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H57" s="11"/>
+      <c r="H57" s="17"/>
     </row>
     <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
@@ -2097,13 +2144,13 @@
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
-      <c r="F58" s="16" t="s">
+      <c r="F58" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H58" s="11"/>
+      <c r="H58" s="17"/>
     </row>
     <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
@@ -2111,13 +2158,13 @@
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
-      <c r="F59" s="16" t="s">
+      <c r="F59" s="1" t="s">
         <v>64</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H59" s="12"/>
+      <c r="H59" s="18"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
@@ -2135,13 +2182,13 @@
       <c r="E60" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="16" t="s">
+      <c r="F60" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H60" s="10"/>
+      <c r="H60" s="16"/>
     </row>
     <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
@@ -2149,13 +2196,13 @@
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
-      <c r="F61" s="16" t="s">
+      <c r="F61" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H61" s="11"/>
+      <c r="H61" s="17"/>
     </row>
     <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
@@ -2163,13 +2210,13 @@
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
-      <c r="F62" s="16" t="s">
+      <c r="F62" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H62" s="11"/>
+      <c r="H62" s="17"/>
     </row>
     <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
@@ -2177,13 +2224,13 @@
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
-      <c r="F63" s="16" t="s">
+      <c r="F63" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H63" s="11"/>
+      <c r="H63" s="17"/>
     </row>
     <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
@@ -2191,43 +2238,43 @@
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
-      <c r="F64" s="16" t="s">
+      <c r="F64" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H64" s="11"/>
-    </row>
-    <row r="65" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="H64" s="17"/>
+    </row>
+    <row r="65" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="14"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
-      <c r="F65" s="16" t="s">
+      <c r="F65" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H65" s="11"/>
-    </row>
-    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H65" s="17"/>
+    </row>
+    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
-      <c r="F66" s="16" t="s">
+      <c r="F66" s="1" t="s">
         <v>74</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H66" s="12"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H66" s="18"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
         <v>12</v>
       </c>
@@ -2243,113 +2290,123 @@
       <c r="E67" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F67" s="16" t="s">
+      <c r="F67" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H67" s="10"/>
-    </row>
-    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H67" s="19"/>
+      <c r="I67" s="22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="14"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
-      <c r="F68" s="16" t="s">
+      <c r="F68" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H68" s="11"/>
-    </row>
-    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H68" s="20"/>
+      <c r="I68" s="22"/>
+    </row>
+    <row r="69" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="14"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
-      <c r="F69" s="16" t="s">
+      <c r="F69" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H69" s="11"/>
-    </row>
-    <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H69" s="20"/>
+      <c r="I69" s="22"/>
+    </row>
+    <row r="70" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="14"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
-      <c r="F70" s="16" t="s">
+      <c r="F70" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H70" s="11"/>
-    </row>
-    <row r="71" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H70" s="20"/>
+      <c r="I70" s="22"/>
+    </row>
+    <row r="71" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="14"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
-      <c r="F71" s="16" t="s">
+      <c r="F71" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H71" s="11"/>
-    </row>
-    <row r="72" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="H71" s="20"/>
+      <c r="I71" s="22"/>
+    </row>
+    <row r="72" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="14"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
-      <c r="F72" s="16" t="s">
+      <c r="F72" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H72" s="11"/>
-    </row>
-    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H72" s="20"/>
+      <c r="I72" s="22"/>
+    </row>
+    <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="14"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
-      <c r="F73" s="16" t="s">
+      <c r="F73" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H73" s="11"/>
-    </row>
-    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H73" s="20"/>
+      <c r="I73" s="22"/>
+    </row>
+    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
-      <c r="F74" s="16" t="s">
+      <c r="F74" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H74" s="12"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H74" s="21"/>
+      <c r="I74" s="22"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="13">
         <v>13</v>
       </c>
@@ -2365,113 +2422,121 @@
       <c r="E75" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F75" s="16" t="s">
+      <c r="F75" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H75" s="10"/>
-    </row>
-    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H75" s="19"/>
+      <c r="I75" s="22"/>
+    </row>
+    <row r="76" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="14"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
-      <c r="F76" s="16" t="s">
+      <c r="F76" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H76" s="11"/>
-    </row>
-    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H76" s="20"/>
+      <c r="I76" s="22"/>
+    </row>
+    <row r="77" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="14"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
-      <c r="F77" s="16" t="s">
+      <c r="F77" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H77" s="11"/>
-    </row>
-    <row r="78" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H77" s="20"/>
+      <c r="I77" s="22"/>
+    </row>
+    <row r="78" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="14"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
-      <c r="F78" s="16" t="s">
+      <c r="F78" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H78" s="11"/>
-    </row>
-    <row r="79" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H78" s="20"/>
+      <c r="I78" s="22"/>
+    </row>
+    <row r="79" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="14"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
-      <c r="F79" s="16" t="s">
+      <c r="F79" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H79" s="11"/>
-    </row>
-    <row r="80" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="H79" s="20"/>
+      <c r="I79" s="22"/>
+    </row>
+    <row r="80" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" s="14"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
-      <c r="F80" s="16" t="s">
+      <c r="F80" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H80" s="11"/>
-    </row>
-    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H80" s="20"/>
+      <c r="I80" s="22"/>
+    </row>
+    <row r="81" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="14"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
-      <c r="F81" s="16" t="s">
+      <c r="F81" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H81" s="11"/>
-    </row>
-    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H81" s="20"/>
+      <c r="I81" s="22"/>
+    </row>
+    <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="15"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
-      <c r="F82" s="16" t="s">
+      <c r="F82" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H82" s="12"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H82" s="21"/>
+      <c r="I82" s="22"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="13">
         <v>14</v>
       </c>
@@ -2487,113 +2552,121 @@
       <c r="E83" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F83" s="16" t="s">
+      <c r="F83" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H83" s="10"/>
-    </row>
-    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H83" s="19"/>
+      <c r="I83" s="22"/>
+    </row>
+    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="14"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
-      <c r="F84" s="16" t="s">
+      <c r="F84" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H84" s="11"/>
-    </row>
-    <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H84" s="20"/>
+      <c r="I84" s="22"/>
+    </row>
+    <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="14"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
-      <c r="F85" s="16" t="s">
+      <c r="F85" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H85" s="11"/>
-    </row>
-    <row r="86" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H85" s="20"/>
+      <c r="I85" s="22"/>
+    </row>
+    <row r="86" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="14"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
-      <c r="F86" s="16" t="s">
+      <c r="F86" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H86" s="11"/>
-    </row>
-    <row r="87" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H86" s="20"/>
+      <c r="I86" s="22"/>
+    </row>
+    <row r="87" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="14"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
-      <c r="F87" s="16" t="s">
+      <c r="F87" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H87" s="11"/>
-    </row>
-    <row r="88" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="H87" s="20"/>
+      <c r="I87" s="22"/>
+    </row>
+    <row r="88" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" s="14"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
-      <c r="F88" s="16" t="s">
+      <c r="F88" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H88" s="11"/>
-    </row>
-    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H88" s="20"/>
+      <c r="I88" s="22"/>
+    </row>
+    <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="14"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
-      <c r="F89" s="16" t="s">
+      <c r="F89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H89" s="11"/>
-    </row>
-    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H89" s="20"/>
+      <c r="I89" s="22"/>
+    </row>
+    <row r="90" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="15"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
-      <c r="F90" s="16" t="s">
+      <c r="F90" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H90" s="12"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H90" s="21"/>
+      <c r="I90" s="22"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="13">
         <v>15</v>
       </c>
@@ -2609,113 +2682,121 @@
       <c r="E91" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F91" s="16" t="s">
+      <c r="F91" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H91" s="10"/>
-    </row>
-    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H91" s="19"/>
+      <c r="I91" s="22"/>
+    </row>
+    <row r="92" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="14"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
-      <c r="F92" s="16" t="s">
+      <c r="F92" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H92" s="11"/>
-    </row>
-    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H92" s="20"/>
+      <c r="I92" s="22"/>
+    </row>
+    <row r="93" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
       <c r="E93" s="11"/>
-      <c r="F93" s="16" t="s">
+      <c r="F93" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H93" s="11"/>
-    </row>
-    <row r="94" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H93" s="20"/>
+      <c r="I93" s="22"/>
+    </row>
+    <row r="94" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="14"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
-      <c r="F94" s="16" t="s">
+      <c r="F94" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H94" s="11"/>
-    </row>
-    <row r="95" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H94" s="20"/>
+      <c r="I94" s="22"/>
+    </row>
+    <row r="95" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
       <c r="E95" s="11"/>
-      <c r="F95" s="16" t="s">
+      <c r="F95" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H95" s="11"/>
-    </row>
-    <row r="96" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="H95" s="20"/>
+      <c r="I95" s="22"/>
+    </row>
+    <row r="96" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A96" s="14"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
-      <c r="F96" s="16" t="s">
+      <c r="F96" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H96" s="11"/>
-    </row>
-    <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H96" s="20"/>
+      <c r="I96" s="22"/>
+    </row>
+    <row r="97" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="14"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
       <c r="E97" s="11"/>
-      <c r="F97" s="16" t="s">
+      <c r="F97" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H97" s="11"/>
-    </row>
-    <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H97" s="20"/>
+      <c r="I97" s="22"/>
+    </row>
+    <row r="98" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="15"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
       <c r="D98" s="12"/>
       <c r="E98" s="12"/>
-      <c r="F98" s="16" t="s">
+      <c r="F98" s="1" t="s">
         <v>89</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H98" s="12"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H98" s="21"/>
+      <c r="I98" s="22"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="13">
         <v>16</v>
       </c>
@@ -2731,113 +2812,121 @@
       <c r="E99" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F99" s="16" t="s">
+      <c r="F99" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H99" s="10"/>
-    </row>
-    <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H99" s="19"/>
+      <c r="I99" s="22"/>
+    </row>
+    <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="14"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
-      <c r="F100" s="16" t="s">
+      <c r="F100" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H100" s="11"/>
-    </row>
-    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H100" s="20"/>
+      <c r="I100" s="22"/>
+    </row>
+    <row r="101" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="14"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
       <c r="E101" s="11"/>
-      <c r="F101" s="16" t="s">
+      <c r="F101" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H101" s="11"/>
-    </row>
-    <row r="102" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H101" s="20"/>
+      <c r="I101" s="22"/>
+    </row>
+    <row r="102" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="14"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
-      <c r="F102" s="16" t="s">
+      <c r="F102" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H102" s="11"/>
-    </row>
-    <row r="103" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H102" s="20"/>
+      <c r="I102" s="22"/>
+    </row>
+    <row r="103" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="14"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
       <c r="E103" s="11"/>
-      <c r="F103" s="16" t="s">
+      <c r="F103" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H103" s="11"/>
-    </row>
-    <row r="104" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="H103" s="20"/>
+      <c r="I103" s="22"/>
+    </row>
+    <row r="104" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" s="14"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
-      <c r="F104" s="16" t="s">
+      <c r="F104" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H104" s="11"/>
-    </row>
-    <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H104" s="20"/>
+      <c r="I104" s="22"/>
+    </row>
+    <row r="105" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="14"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
-      <c r="F105" s="16" t="s">
+      <c r="F105" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H105" s="11"/>
-    </row>
-    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H105" s="20"/>
+      <c r="I105" s="22"/>
+    </row>
+    <row r="106" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="15"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
-      <c r="F106" s="16" t="s">
+      <c r="F106" s="1" t="s">
         <v>92</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H106" s="12"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H106" s="21"/>
+      <c r="I106" s="22"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="13">
         <v>17</v>
       </c>
@@ -2853,113 +2942,121 @@
       <c r="E107" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F107" s="16" t="s">
+      <c r="F107" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H107" s="10"/>
-    </row>
-    <row r="108" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H107" s="19"/>
+      <c r="I107" s="22"/>
+    </row>
+    <row r="108" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="14"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
       <c r="E108" s="11"/>
-      <c r="F108" s="16" t="s">
+      <c r="F108" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H108" s="11"/>
-    </row>
-    <row r="109" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H108" s="20"/>
+      <c r="I108" s="22"/>
+    </row>
+    <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="14"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
-      <c r="F109" s="16" t="s">
+      <c r="F109" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H109" s="11"/>
-    </row>
-    <row r="110" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H109" s="20"/>
+      <c r="I109" s="22"/>
+    </row>
+    <row r="110" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="14"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
-      <c r="F110" s="16" t="s">
+      <c r="F110" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H110" s="11"/>
-    </row>
-    <row r="111" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H110" s="20"/>
+      <c r="I110" s="22"/>
+    </row>
+    <row r="111" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="14"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
       <c r="E111" s="11"/>
-      <c r="F111" s="16" t="s">
+      <c r="F111" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H111" s="11"/>
-    </row>
-    <row r="112" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="H111" s="20"/>
+      <c r="I111" s="22"/>
+    </row>
+    <row r="112" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A112" s="14"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
       <c r="E112" s="11"/>
-      <c r="F112" s="16" t="s">
+      <c r="F112" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H112" s="11"/>
-    </row>
-    <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H112" s="20"/>
+      <c r="I112" s="22"/>
+    </row>
+    <row r="113" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="14"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
       <c r="E113" s="11"/>
-      <c r="F113" s="16" t="s">
+      <c r="F113" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H113" s="11"/>
-    </row>
-    <row r="114" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H113" s="20"/>
+      <c r="I113" s="22"/>
+    </row>
+    <row r="114" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="15"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
       <c r="D114" s="12"/>
       <c r="E114" s="12"/>
-      <c r="F114" s="16" t="s">
+      <c r="F114" s="1" t="s">
         <v>95</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H114" s="12"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H114" s="21"/>
+      <c r="I114" s="22"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="13">
         <v>18</v>
       </c>
@@ -2975,113 +3072,121 @@
       <c r="E115" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F115" s="16" t="s">
+      <c r="F115" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H115" s="10"/>
-    </row>
-    <row r="116" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H115" s="19"/>
+      <c r="I115" s="22"/>
+    </row>
+    <row r="116" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="14"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
       <c r="E116" s="11"/>
-      <c r="F116" s="16" t="s">
+      <c r="F116" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H116" s="11"/>
-    </row>
-    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H116" s="20"/>
+      <c r="I116" s="22"/>
+    </row>
+    <row r="117" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="14"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
       <c r="D117" s="11"/>
       <c r="E117" s="11"/>
-      <c r="F117" s="16" t="s">
+      <c r="F117" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H117" s="11"/>
-    </row>
-    <row r="118" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H117" s="20"/>
+      <c r="I117" s="22"/>
+    </row>
+    <row r="118" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="14"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11"/>
-      <c r="F118" s="16" t="s">
+      <c r="F118" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H118" s="11"/>
-    </row>
-    <row r="119" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H118" s="20"/>
+      <c r="I118" s="22"/>
+    </row>
+    <row r="119" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="14"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
       <c r="D119" s="11"/>
       <c r="E119" s="11"/>
-      <c r="F119" s="16" t="s">
+      <c r="F119" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H119" s="11"/>
-    </row>
-    <row r="120" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="H119" s="20"/>
+      <c r="I119" s="22"/>
+    </row>
+    <row r="120" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A120" s="14"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
       <c r="E120" s="11"/>
-      <c r="F120" s="16" t="s">
+      <c r="F120" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H120" s="11"/>
-    </row>
-    <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H120" s="20"/>
+      <c r="I120" s="22"/>
+    </row>
+    <row r="121" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="14"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
       <c r="D121" s="11"/>
       <c r="E121" s="11"/>
-      <c r="F121" s="16" t="s">
+      <c r="F121" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H121" s="11"/>
-    </row>
-    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H121" s="20"/>
+      <c r="I121" s="22"/>
+    </row>
+    <row r="122" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="15"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
       <c r="D122" s="12"/>
       <c r="E122" s="12"/>
-      <c r="F122" s="16" t="s">
+      <c r="F122" s="1" t="s">
         <v>98</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H122" s="12"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H122" s="21"/>
+      <c r="I122" s="22"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="13">
         <v>19</v>
       </c>
@@ -3097,113 +3202,121 @@
       <c r="E123" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F123" s="16" t="s">
+      <c r="F123" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H123" s="10"/>
-    </row>
-    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H123" s="19"/>
+      <c r="I123" s="22"/>
+    </row>
+    <row r="124" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="14"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
       <c r="D124" s="11"/>
       <c r="E124" s="11"/>
-      <c r="F124" s="16" t="s">
+      <c r="F124" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H124" s="11"/>
-    </row>
-    <row r="125" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H124" s="20"/>
+      <c r="I124" s="22"/>
+    </row>
+    <row r="125" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="14"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
       <c r="D125" s="11"/>
       <c r="E125" s="11"/>
-      <c r="F125" s="16" t="s">
+      <c r="F125" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H125" s="11"/>
-    </row>
-    <row r="126" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H125" s="20"/>
+      <c r="I125" s="22"/>
+    </row>
+    <row r="126" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
       <c r="D126" s="11"/>
       <c r="E126" s="11"/>
-      <c r="F126" s="16" t="s">
+      <c r="F126" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H126" s="11"/>
-    </row>
-    <row r="127" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H126" s="20"/>
+      <c r="I126" s="22"/>
+    </row>
+    <row r="127" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="14"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
       <c r="D127" s="11"/>
       <c r="E127" s="11"/>
-      <c r="F127" s="16" t="s">
+      <c r="F127" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H127" s="11"/>
-    </row>
-    <row r="128" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="H127" s="20"/>
+      <c r="I127" s="22"/>
+    </row>
+    <row r="128" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A128" s="14"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
       <c r="E128" s="11"/>
-      <c r="F128" s="16" t="s">
+      <c r="F128" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H128" s="11"/>
-    </row>
-    <row r="129" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H128" s="20"/>
+      <c r="I128" s="22"/>
+    </row>
+    <row r="129" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="14"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
       <c r="D129" s="11"/>
       <c r="E129" s="11"/>
-      <c r="F129" s="16" t="s">
+      <c r="F129" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H129" s="11"/>
-    </row>
-    <row r="130" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H129" s="20"/>
+      <c r="I129" s="22"/>
+    </row>
+    <row r="130" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="15"/>
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
       <c r="D130" s="12"/>
       <c r="E130" s="12"/>
-      <c r="F130" s="16" t="s">
+      <c r="F130" s="1" t="s">
         <v>101</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H130" s="12"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H130" s="21"/>
+      <c r="I130" s="22"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="13">
         <v>20</v>
       </c>
@@ -3219,141 +3332,151 @@
       <c r="E131" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F131" s="16" t="s">
+      <c r="F131" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H131" s="10"/>
-    </row>
-    <row r="132" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H131" s="19"/>
+      <c r="I131" s="22"/>
+    </row>
+    <row r="132" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="14"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
       <c r="D132" s="11"/>
       <c r="E132" s="11"/>
-      <c r="F132" s="16" t="s">
+      <c r="F132" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H132" s="11"/>
-    </row>
-    <row r="133" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H132" s="20"/>
+      <c r="I132" s="22"/>
+    </row>
+    <row r="133" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="14"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
       <c r="D133" s="11"/>
       <c r="E133" s="11"/>
-      <c r="F133" s="16" t="s">
+      <c r="F133" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H133" s="11"/>
-    </row>
-    <row r="134" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H133" s="20"/>
+      <c r="I133" s="22"/>
+    </row>
+    <row r="134" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="14"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
-      <c r="F134" s="16" t="s">
+      <c r="F134" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H134" s="11"/>
-    </row>
-    <row r="135" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H134" s="20"/>
+      <c r="I134" s="22"/>
+    </row>
+    <row r="135" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="14"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
       <c r="D135" s="11"/>
       <c r="E135" s="11"/>
-      <c r="F135" s="16" t="s">
+      <c r="F135" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H135" s="11"/>
-    </row>
-    <row r="136" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="H135" s="20"/>
+      <c r="I135" s="22"/>
+    </row>
+    <row r="136" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A136" s="14"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
       <c r="D136" s="11"/>
       <c r="E136" s="11"/>
-      <c r="F136" s="16" t="s">
+      <c r="F136" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H136" s="11"/>
-    </row>
-    <row r="137" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H136" s="20"/>
+      <c r="I136" s="22"/>
+    </row>
+    <row r="137" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="14"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
       <c r="D137" s="11"/>
       <c r="E137" s="11"/>
-      <c r="F137" s="16" t="s">
+      <c r="F137" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H137" s="11"/>
-    </row>
-    <row r="138" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H137" s="20"/>
+      <c r="I137" s="22"/>
+    </row>
+    <row r="138" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="14"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>
-      <c r="F138" s="16" t="s">
+      <c r="F138" s="1" t="s">
         <v>104</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H138" s="11"/>
-    </row>
-    <row r="139" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H138" s="20"/>
+      <c r="I138" s="22"/>
+    </row>
+    <row r="139" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="14"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
       <c r="D139" s="11"/>
       <c r="E139" s="11"/>
-      <c r="F139" s="16" t="s">
+      <c r="F139" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H139" s="11"/>
-    </row>
-    <row r="140" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H139" s="20"/>
+      <c r="I139" s="22"/>
+    </row>
+    <row r="140" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="15"/>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
       <c r="D140" s="12"/>
       <c r="E140" s="12"/>
-      <c r="F140" s="16" t="s">
+      <c r="F140" s="1" t="s">
         <v>108</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H140" s="12"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H140" s="21"/>
+      <c r="I140" s="22"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="13">
         <v>21</v>
       </c>
@@ -3369,55 +3492,55 @@
       <c r="E141" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F141" s="16" t="s">
+      <c r="F141" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H141" s="10"/>
-    </row>
-    <row r="142" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H141" s="16"/>
+    </row>
+    <row r="142" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="14"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
       <c r="D142" s="11"/>
       <c r="E142" s="11"/>
-      <c r="F142" s="16" t="s">
+      <c r="F142" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H142" s="11"/>
-    </row>
-    <row r="143" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H142" s="17"/>
+    </row>
+    <row r="143" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="14"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
       <c r="E143" s="11"/>
-      <c r="F143" s="16" t="s">
+      <c r="F143" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H143" s="11"/>
-    </row>
-    <row r="144" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H143" s="17"/>
+    </row>
+    <row r="144" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="14"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
       <c r="E144" s="11"/>
-      <c r="F144" s="16" t="s">
+      <c r="F144" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H144" s="11"/>
+      <c r="H144" s="17"/>
     </row>
     <row r="145" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="14"/>
@@ -3425,13 +3548,13 @@
       <c r="C145" s="11"/>
       <c r="D145" s="11"/>
       <c r="E145" s="11"/>
-      <c r="F145" s="16" t="s">
+      <c r="F145" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H145" s="11"/>
+      <c r="H145" s="17"/>
     </row>
     <row r="146" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A146" s="14"/>
@@ -3439,13 +3562,13 @@
       <c r="C146" s="11"/>
       <c r="D146" s="11"/>
       <c r="E146" s="11"/>
-      <c r="F146" s="16" t="s">
+      <c r="F146" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H146" s="11"/>
+      <c r="H146" s="17"/>
     </row>
     <row r="147" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="14"/>
@@ -3453,13 +3576,13 @@
       <c r="C147" s="11"/>
       <c r="D147" s="11"/>
       <c r="E147" s="11"/>
-      <c r="F147" s="16" t="s">
+      <c r="F147" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H147" s="11"/>
+      <c r="H147" s="17"/>
     </row>
     <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="14"/>
@@ -3467,13 +3590,13 @@
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
       <c r="E148" s="11"/>
-      <c r="F148" s="16" t="s">
+      <c r="F148" s="1" t="s">
         <v>104</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H148" s="11"/>
+      <c r="H148" s="17"/>
     </row>
     <row r="149" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="15"/>
@@ -3481,13 +3604,13 @@
       <c r="C149" s="12"/>
       <c r="D149" s="12"/>
       <c r="E149" s="12"/>
-      <c r="F149" s="16" t="s">
+      <c r="F149" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H149" s="12"/>
+      <c r="H149" s="18"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="13">
@@ -3505,13 +3628,13 @@
       <c r="E150" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F150" s="16" t="s">
+      <c r="F150" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H150" s="10"/>
+      <c r="H150" s="16"/>
     </row>
     <row r="151" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="14"/>
@@ -3519,13 +3642,13 @@
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
       <c r="E151" s="11"/>
-      <c r="F151" s="16" t="s">
+      <c r="F151" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H151" s="11"/>
+      <c r="H151" s="17"/>
     </row>
     <row r="152" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="14"/>
@@ -3533,13 +3656,13 @@
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
       <c r="E152" s="11"/>
-      <c r="F152" s="16" t="s">
+      <c r="F152" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H152" s="11"/>
+      <c r="H152" s="17"/>
     </row>
     <row r="153" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="14"/>
@@ -3547,13 +3670,13 @@
       <c r="C153" s="11"/>
       <c r="D153" s="11"/>
       <c r="E153" s="11"/>
-      <c r="F153" s="16" t="s">
+      <c r="F153" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H153" s="11"/>
+      <c r="H153" s="17"/>
     </row>
     <row r="154" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="14"/>
@@ -3561,13 +3684,13 @@
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
       <c r="E154" s="11"/>
-      <c r="F154" s="16" t="s">
+      <c r="F154" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H154" s="11"/>
+      <c r="H154" s="17"/>
     </row>
     <row r="155" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A155" s="14"/>
@@ -3575,13 +3698,13 @@
       <c r="C155" s="11"/>
       <c r="D155" s="11"/>
       <c r="E155" s="11"/>
-      <c r="F155" s="16" t="s">
+      <c r="F155" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H155" s="11"/>
+      <c r="H155" s="17"/>
     </row>
     <row r="156" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="14"/>
@@ -3589,13 +3712,13 @@
       <c r="C156" s="11"/>
       <c r="D156" s="11"/>
       <c r="E156" s="11"/>
-      <c r="F156" s="16" t="s">
+      <c r="F156" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H156" s="11"/>
+      <c r="H156" s="17"/>
     </row>
     <row r="157" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="14"/>
@@ -3603,13 +3726,13 @@
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
       <c r="E157" s="11"/>
-      <c r="F157" s="16" t="s">
+      <c r="F157" s="1" t="s">
         <v>115</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H157" s="11"/>
+      <c r="H157" s="17"/>
     </row>
     <row r="158" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="15"/>
@@ -3617,13 +3740,13 @@
       <c r="C158" s="12"/>
       <c r="D158" s="12"/>
       <c r="E158" s="12"/>
-      <c r="F158" s="16" t="s">
+      <c r="F158" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H158" s="12"/>
+      <c r="H158" s="18"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="13">
@@ -3641,13 +3764,13 @@
       <c r="E159" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F159" s="16" t="s">
+      <c r="F159" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H159" s="10"/>
+      <c r="H159" s="16"/>
     </row>
     <row r="160" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="14"/>
@@ -3655,13 +3778,13 @@
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
       <c r="E160" s="11"/>
-      <c r="F160" s="16" t="s">
+      <c r="F160" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H160" s="11"/>
+      <c r="H160" s="17"/>
     </row>
     <row r="161" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="14"/>
@@ -3669,13 +3792,13 @@
       <c r="C161" s="11"/>
       <c r="D161" s="11"/>
       <c r="E161" s="11"/>
-      <c r="F161" s="16" t="s">
+      <c r="F161" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H161" s="11"/>
+      <c r="H161" s="17"/>
     </row>
     <row r="162" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="14"/>
@@ -3683,13 +3806,13 @@
       <c r="C162" s="11"/>
       <c r="D162" s="11"/>
       <c r="E162" s="11"/>
-      <c r="F162" s="16" t="s">
+      <c r="F162" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H162" s="11"/>
+      <c r="H162" s="17"/>
     </row>
     <row r="163" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="14"/>
@@ -3697,13 +3820,13 @@
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
       <c r="E163" s="11"/>
-      <c r="F163" s="16" t="s">
+      <c r="F163" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H163" s="11"/>
+      <c r="H163" s="17"/>
     </row>
     <row r="164" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A164" s="14"/>
@@ -3711,13 +3834,13 @@
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
       <c r="E164" s="11"/>
-      <c r="F164" s="16" t="s">
+      <c r="F164" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H164" s="11"/>
+      <c r="H164" s="17"/>
     </row>
     <row r="165" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="14"/>
@@ -3725,13 +3848,13 @@
       <c r="C165" s="11"/>
       <c r="D165" s="11"/>
       <c r="E165" s="11"/>
-      <c r="F165" s="16" t="s">
+      <c r="F165" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H165" s="11"/>
+      <c r="H165" s="17"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="14"/>
@@ -3739,13 +3862,13 @@
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
       <c r="E166" s="11"/>
-      <c r="F166" s="16" t="s">
+      <c r="F166" s="1" t="s">
         <v>118</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H166" s="11"/>
+      <c r="H166" s="17"/>
     </row>
     <row r="167" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="15"/>
@@ -3753,13 +3876,13 @@
       <c r="C167" s="12"/>
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
-      <c r="F167" s="16" t="s">
+      <c r="F167" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H167" s="12"/>
+      <c r="H167" s="18"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="13">
@@ -3777,13 +3900,13 @@
       <c r="E168" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F168" s="16" t="s">
+      <c r="F168" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H168" s="10"/>
+      <c r="H168" s="16"/>
     </row>
     <row r="169" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="14"/>
@@ -3791,13 +3914,13 @@
       <c r="C169" s="11"/>
       <c r="D169" s="11"/>
       <c r="E169" s="11"/>
-      <c r="F169" s="16" t="s">
+      <c r="F169" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H169" s="11"/>
+      <c r="H169" s="17"/>
     </row>
     <row r="170" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="14"/>
@@ -3805,13 +3928,13 @@
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
       <c r="E170" s="11"/>
-      <c r="F170" s="16" t="s">
+      <c r="F170" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H170" s="11"/>
+      <c r="H170" s="17"/>
     </row>
     <row r="171" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="14"/>
@@ -3819,13 +3942,13 @@
       <c r="C171" s="11"/>
       <c r="D171" s="11"/>
       <c r="E171" s="11"/>
-      <c r="F171" s="16" t="s">
+      <c r="F171" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H171" s="11"/>
+      <c r="H171" s="17"/>
     </row>
     <row r="172" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="14"/>
@@ -3833,13 +3956,13 @@
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
       <c r="E172" s="11"/>
-      <c r="F172" s="16" t="s">
+      <c r="F172" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H172" s="11"/>
+      <c r="H172" s="17"/>
     </row>
     <row r="173" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A173" s="14"/>
@@ -3847,13 +3970,13 @@
       <c r="C173" s="11"/>
       <c r="D173" s="11"/>
       <c r="E173" s="11"/>
-      <c r="F173" s="16" t="s">
+      <c r="F173" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H173" s="11"/>
+      <c r="H173" s="17"/>
     </row>
     <row r="174" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="14"/>
@@ -3861,13 +3984,13 @@
       <c r="C174" s="11"/>
       <c r="D174" s="11"/>
       <c r="E174" s="11"/>
-      <c r="F174" s="16" t="s">
+      <c r="F174" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H174" s="11"/>
+      <c r="H174" s="17"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="14"/>
@@ -3875,13 +3998,13 @@
       <c r="C175" s="11"/>
       <c r="D175" s="11"/>
       <c r="E175" s="11"/>
-      <c r="F175" s="16" t="s">
+      <c r="F175" s="1" t="s">
         <v>122</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H175" s="11"/>
+      <c r="H175" s="17"/>
     </row>
     <row r="176" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="15"/>
@@ -3889,13 +4012,13 @@
       <c r="C176" s="12"/>
       <c r="D176" s="12"/>
       <c r="E176" s="12"/>
-      <c r="F176" s="16" t="s">
+      <c r="F176" s="1" t="s">
         <v>112</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H176" s="12"/>
+      <c r="H176" s="18"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="13">
@@ -3913,13 +4036,13 @@
       <c r="E177" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F177" s="16" t="s">
+      <c r="F177" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H177" s="10"/>
+      <c r="H177" s="16"/>
     </row>
     <row r="178" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="14"/>
@@ -3927,13 +4050,13 @@
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
       <c r="E178" s="11"/>
-      <c r="F178" s="16" t="s">
+      <c r="F178" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H178" s="11"/>
+      <c r="H178" s="17"/>
     </row>
     <row r="179" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="14"/>
@@ -3941,13 +4064,13 @@
       <c r="C179" s="11"/>
       <c r="D179" s="11"/>
       <c r="E179" s="11"/>
-      <c r="F179" s="16" t="s">
+      <c r="F179" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H179" s="11"/>
+      <c r="H179" s="17"/>
     </row>
     <row r="180" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A180" s="14"/>
@@ -3955,13 +4078,13 @@
       <c r="C180" s="11"/>
       <c r="D180" s="11"/>
       <c r="E180" s="11"/>
-      <c r="F180" s="16" t="s">
+      <c r="F180" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H180" s="11"/>
+      <c r="H180" s="17"/>
     </row>
     <row r="181" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="14"/>
@@ -3969,13 +4092,13 @@
       <c r="C181" s="11"/>
       <c r="D181" s="11"/>
       <c r="E181" s="11"/>
-      <c r="F181" s="16" t="s">
+      <c r="F181" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H181" s="11"/>
+      <c r="H181" s="17"/>
     </row>
     <row r="182" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A182" s="14"/>
@@ -3983,13 +4106,13 @@
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
       <c r="E182" s="11"/>
-      <c r="F182" s="16" t="s">
+      <c r="F182" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H182" s="11"/>
+      <c r="H182" s="17"/>
     </row>
     <row r="183" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="14"/>
@@ -3997,13 +4120,13 @@
       <c r="C183" s="11"/>
       <c r="D183" s="11"/>
       <c r="E183" s="11"/>
-      <c r="F183" s="16" t="s">
+      <c r="F183" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H183" s="11"/>
+      <c r="H183" s="17"/>
     </row>
     <row r="184" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="14"/>
@@ -4011,13 +4134,13 @@
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
       <c r="E184" s="11"/>
-      <c r="F184" s="16" t="s">
+      <c r="F184" s="1" t="s">
         <v>104</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H184" s="11"/>
+      <c r="H184" s="17"/>
     </row>
     <row r="185" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="14"/>
@@ -4025,13 +4148,13 @@
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
       <c r="E185" s="11"/>
-      <c r="F185" s="16" t="s">
+      <c r="F185" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H185" s="11"/>
+      <c r="H185" s="17"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="14"/>
@@ -4039,13 +4162,13 @@
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
       <c r="E186" s="11"/>
-      <c r="F186" s="16" t="s">
+      <c r="F186" s="1" t="s">
         <v>126</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H186" s="11"/>
+      <c r="H186" s="17"/>
     </row>
     <row r="187" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A187" s="15"/>
@@ -4053,13 +4176,13 @@
       <c r="C187" s="12"/>
       <c r="D187" s="12"/>
       <c r="E187" s="12"/>
-      <c r="F187" s="16" t="s">
+      <c r="F187" s="1" t="s">
         <v>128</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H187" s="12"/>
+      <c r="H187" s="18"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="13">
@@ -4077,13 +4200,13 @@
       <c r="E188" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F188" s="16" t="s">
+      <c r="F188" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H188" s="10"/>
+      <c r="H188" s="16"/>
     </row>
     <row r="189" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="14"/>
@@ -4091,13 +4214,13 @@
       <c r="C189" s="11"/>
       <c r="D189" s="11"/>
       <c r="E189" s="11"/>
-      <c r="F189" s="16" t="s">
+      <c r="F189" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H189" s="11"/>
+      <c r="H189" s="17"/>
     </row>
     <row r="190" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="14"/>
@@ -4105,13 +4228,13 @@
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
       <c r="E190" s="11"/>
-      <c r="F190" s="16" t="s">
+      <c r="F190" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H190" s="11"/>
+      <c r="H190" s="17"/>
     </row>
     <row r="191" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" s="14"/>
@@ -4119,13 +4242,13 @@
       <c r="C191" s="11"/>
       <c r="D191" s="11"/>
       <c r="E191" s="11"/>
-      <c r="F191" s="16" t="s">
+      <c r="F191" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H191" s="11"/>
+      <c r="H191" s="17"/>
     </row>
     <row r="192" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" s="14"/>
@@ -4133,13 +4256,13 @@
       <c r="C192" s="11"/>
       <c r="D192" s="11"/>
       <c r="E192" s="11"/>
-      <c r="F192" s="16" t="s">
+      <c r="F192" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H192" s="11"/>
+      <c r="H192" s="17"/>
     </row>
     <row r="193" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A193" s="14"/>
@@ -4147,13 +4270,13 @@
       <c r="C193" s="11"/>
       <c r="D193" s="11"/>
       <c r="E193" s="11"/>
-      <c r="F193" s="16" t="s">
+      <c r="F193" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H193" s="11"/>
+      <c r="H193" s="17"/>
     </row>
     <row r="194" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="14"/>
@@ -4161,13 +4284,13 @@
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
       <c r="E194" s="11"/>
-      <c r="F194" s="16" t="s">
+      <c r="F194" s="1" t="s">
         <v>132</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H194" s="11"/>
+      <c r="H194" s="17"/>
     </row>
     <row r="195" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="14"/>
@@ -4175,13 +4298,13 @@
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
       <c r="E195" s="11"/>
-      <c r="F195" s="16" t="s">
+      <c r="F195" s="1" t="s">
         <v>134</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H195" s="11"/>
+      <c r="H195" s="17"/>
     </row>
     <row r="196" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="15"/>
@@ -4189,13 +4312,13 @@
       <c r="C196" s="12"/>
       <c r="D196" s="12"/>
       <c r="E196" s="12"/>
-      <c r="F196" s="16" t="s">
+      <c r="F196" s="1" t="s">
         <v>136</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H196" s="12"/>
+      <c r="H196" s="18"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="13">
@@ -4213,7 +4336,7 @@
       <c r="E197" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F197" s="16" t="s">
+      <c r="F197" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G197" s="1" t="s">
@@ -4227,7 +4350,7 @@
       <c r="C198" s="11"/>
       <c r="D198" s="11"/>
       <c r="E198" s="11"/>
-      <c r="F198" s="16" t="s">
+      <c r="F198" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G198" s="1" t="s">
@@ -4241,7 +4364,7 @@
       <c r="C199" s="11"/>
       <c r="D199" s="11"/>
       <c r="E199" s="11"/>
-      <c r="F199" s="16" t="s">
+      <c r="F199" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G199" s="1" t="s">
@@ -4255,7 +4378,7 @@
       <c r="C200" s="11"/>
       <c r="D200" s="11"/>
       <c r="E200" s="11"/>
-      <c r="F200" s="16" t="s">
+      <c r="F200" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G200" s="1" t="s">
@@ -4269,7 +4392,7 @@
       <c r="C201" s="11"/>
       <c r="D201" s="11"/>
       <c r="E201" s="11"/>
-      <c r="F201" s="16" t="s">
+      <c r="F201" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G201" s="1" t="s">
@@ -4283,7 +4406,7 @@
       <c r="C202" s="11"/>
       <c r="D202" s="11"/>
       <c r="E202" s="11"/>
-      <c r="F202" s="16" t="s">
+      <c r="F202" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G202" s="1" t="s">
@@ -4297,7 +4420,7 @@
       <c r="C203" s="11"/>
       <c r="D203" s="11"/>
       <c r="E203" s="11"/>
-      <c r="F203" s="16" t="s">
+      <c r="F203" s="1" t="s">
         <v>132</v>
       </c>
       <c r="G203" s="1" t="s">
@@ -4311,7 +4434,7 @@
       <c r="C204" s="11"/>
       <c r="D204" s="11"/>
       <c r="E204" s="11"/>
-      <c r="F204" s="16" t="s">
+      <c r="F204" s="1" t="s">
         <v>139</v>
       </c>
       <c r="G204" s="1" t="s">
@@ -4325,7 +4448,7 @@
       <c r="C205" s="12"/>
       <c r="D205" s="12"/>
       <c r="E205" s="12"/>
-      <c r="F205" s="16" t="s">
+      <c r="F205" s="1" t="s">
         <v>136</v>
       </c>
       <c r="G205" s="1" t="s">
@@ -4349,7 +4472,7 @@
       <c r="E206" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F206" s="16" t="s">
+      <c r="F206" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G206" s="1" t="s">
@@ -4363,7 +4486,7 @@
       <c r="C207" s="11"/>
       <c r="D207" s="11"/>
       <c r="E207" s="11"/>
-      <c r="F207" s="16" t="s">
+      <c r="F207" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G207" s="1" t="s">
@@ -4377,7 +4500,7 @@
       <c r="C208" s="11"/>
       <c r="D208" s="11"/>
       <c r="E208" s="11"/>
-      <c r="F208" s="16" t="s">
+      <c r="F208" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G208" s="1" t="s">
@@ -4391,7 +4514,7 @@
       <c r="C209" s="11"/>
       <c r="D209" s="11"/>
       <c r="E209" s="11"/>
-      <c r="F209" s="16" t="s">
+      <c r="F209" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G209" s="1" t="s">
@@ -4405,7 +4528,7 @@
       <c r="C210" s="11"/>
       <c r="D210" s="11"/>
       <c r="E210" s="11"/>
-      <c r="F210" s="16" t="s">
+      <c r="F210" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G210" s="1" t="s">
@@ -4419,7 +4542,7 @@
       <c r="C211" s="11"/>
       <c r="D211" s="11"/>
       <c r="E211" s="11"/>
-      <c r="F211" s="16" t="s">
+      <c r="F211" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G211" s="1" t="s">
@@ -4433,7 +4556,7 @@
       <c r="C212" s="11"/>
       <c r="D212" s="11"/>
       <c r="E212" s="11"/>
-      <c r="F212" s="16" t="s">
+      <c r="F212" s="1" t="s">
         <v>132</v>
       </c>
       <c r="G212" s="1" t="s">
@@ -4447,7 +4570,7 @@
       <c r="C213" s="11"/>
       <c r="D213" s="11"/>
       <c r="E213" s="11"/>
-      <c r="F213" s="16" t="s">
+      <c r="F213" s="1" t="s">
         <v>143</v>
       </c>
       <c r="G213" s="1" t="s">
@@ -4461,7 +4584,7 @@
       <c r="C214" s="12"/>
       <c r="D214" s="12"/>
       <c r="E214" s="12"/>
-      <c r="F214" s="16" t="s">
+      <c r="F214" s="1" t="s">
         <v>136</v>
       </c>
       <c r="G214" s="1" t="s">
@@ -4485,7 +4608,7 @@
       <c r="E215" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F215" s="16" t="s">
+      <c r="F215" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G215" s="1" t="s">
@@ -4499,7 +4622,7 @@
       <c r="C216" s="11"/>
       <c r="D216" s="11"/>
       <c r="E216" s="11"/>
-      <c r="F216" s="16" t="s">
+      <c r="F216" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G216" s="1" t="s">
@@ -4513,7 +4636,7 @@
       <c r="C217" s="11"/>
       <c r="D217" s="11"/>
       <c r="E217" s="11"/>
-      <c r="F217" s="16" t="s">
+      <c r="F217" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G217" s="1" t="s">
@@ -4527,7 +4650,7 @@
       <c r="C218" s="11"/>
       <c r="D218" s="11"/>
       <c r="E218" s="11"/>
-      <c r="F218" s="16" t="s">
+      <c r="F218" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G218" s="1" t="s">
@@ -4541,7 +4664,7 @@
       <c r="C219" s="11"/>
       <c r="D219" s="11"/>
       <c r="E219" s="11"/>
-      <c r="F219" s="16" t="s">
+      <c r="F219" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G219" s="1" t="s">
@@ -4555,7 +4678,7 @@
       <c r="C220" s="11"/>
       <c r="D220" s="11"/>
       <c r="E220" s="11"/>
-      <c r="F220" s="16" t="s">
+      <c r="F220" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G220" s="1" t="s">
@@ -4569,7 +4692,7 @@
       <c r="C221" s="11"/>
       <c r="D221" s="11"/>
       <c r="E221" s="11"/>
-      <c r="F221" s="16" t="s">
+      <c r="F221" s="1" t="s">
         <v>132</v>
       </c>
       <c r="G221" s="1" t="s">
@@ -4583,7 +4706,7 @@
       <c r="C222" s="11"/>
       <c r="D222" s="11"/>
       <c r="E222" s="11"/>
-      <c r="F222" s="16" t="s">
+      <c r="F222" s="1" t="s">
         <v>147</v>
       </c>
       <c r="G222" s="1" t="s">
@@ -4597,7 +4720,7 @@
       <c r="C223" s="11"/>
       <c r="D223" s="11"/>
       <c r="E223" s="11"/>
-      <c r="F223" s="16" t="s">
+      <c r="F223" s="1" t="s">
         <v>136</v>
       </c>
       <c r="G223" s="1" t="s">
@@ -4611,7 +4734,7 @@
       <c r="C224" s="12"/>
       <c r="D224" s="12"/>
       <c r="E224" s="12"/>
-      <c r="F224" s="17" t="s">
+      <c r="F224" s="8" t="s">
         <v>150</v>
       </c>
       <c r="G224" s="8" t="s">
@@ -4635,7 +4758,7 @@
       <c r="E225" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F225" s="16" t="s">
+      <c r="F225" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G225" s="1" t="s">
@@ -4649,7 +4772,7 @@
       <c r="C226" s="11"/>
       <c r="D226" s="11"/>
       <c r="E226" s="11"/>
-      <c r="F226" s="16" t="s">
+      <c r="F226" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G226" s="1" t="s">
@@ -4663,7 +4786,7 @@
       <c r="C227" s="11"/>
       <c r="D227" s="11"/>
       <c r="E227" s="11"/>
-      <c r="F227" s="16" t="s">
+      <c r="F227" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G227" s="1" t="s">
@@ -4677,7 +4800,7 @@
       <c r="C228" s="11"/>
       <c r="D228" s="11"/>
       <c r="E228" s="11"/>
-      <c r="F228" s="16" t="s">
+      <c r="F228" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G228" s="1" t="s">
@@ -4691,7 +4814,7 @@
       <c r="C229" s="11"/>
       <c r="D229" s="11"/>
       <c r="E229" s="11"/>
-      <c r="F229" s="16" t="s">
+      <c r="F229" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G229" s="1" t="s">
@@ -4705,7 +4828,7 @@
       <c r="C230" s="11"/>
       <c r="D230" s="11"/>
       <c r="E230" s="11"/>
-      <c r="F230" s="16" t="s">
+      <c r="F230" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G230" s="1" t="s">
@@ -4719,7 +4842,7 @@
       <c r="C231" s="11"/>
       <c r="D231" s="11"/>
       <c r="E231" s="11"/>
-      <c r="F231" s="16" t="s">
+      <c r="F231" s="1" t="s">
         <v>132</v>
       </c>
       <c r="G231" s="1" t="s">
@@ -4733,7 +4856,7 @@
       <c r="C232" s="11"/>
       <c r="D232" s="11"/>
       <c r="E232" s="11"/>
-      <c r="F232" s="16" t="s">
+      <c r="F232" s="1" t="s">
         <v>153</v>
       </c>
       <c r="G232" s="1" t="s">
@@ -4747,7 +4870,7 @@
       <c r="C233" s="12"/>
       <c r="D233" s="12"/>
       <c r="E233" s="12"/>
-      <c r="F233" s="16" t="s">
+      <c r="F233" s="1" t="s">
         <v>136</v>
       </c>
       <c r="G233" s="1" t="s">
@@ -4771,7 +4894,7 @@
       <c r="E234" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F234" s="16" t="s">
+      <c r="F234" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G234" s="1" t="s">
@@ -4785,7 +4908,7 @@
       <c r="C235" s="11"/>
       <c r="D235" s="11"/>
       <c r="E235" s="11"/>
-      <c r="F235" s="16" t="s">
+      <c r="F235" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G235" s="1" t="s">
@@ -4799,7 +4922,7 @@
       <c r="C236" s="11"/>
       <c r="D236" s="11"/>
       <c r="E236" s="11"/>
-      <c r="F236" s="16" t="s">
+      <c r="F236" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G236" s="1" t="s">
@@ -4813,7 +4936,7 @@
       <c r="C237" s="11"/>
       <c r="D237" s="11"/>
       <c r="E237" s="11"/>
-      <c r="F237" s="16" t="s">
+      <c r="F237" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G237" s="1" t="s">
@@ -4827,7 +4950,7 @@
       <c r="C238" s="11"/>
       <c r="D238" s="11"/>
       <c r="E238" s="11"/>
-      <c r="F238" s="16" t="s">
+      <c r="F238" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G238" s="1" t="s">
@@ -4841,7 +4964,7 @@
       <c r="C239" s="11"/>
       <c r="D239" s="11"/>
       <c r="E239" s="11"/>
-      <c r="F239" s="16" t="s">
+      <c r="F239" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G239" s="1" t="s">
@@ -4855,7 +4978,7 @@
       <c r="C240" s="11"/>
       <c r="D240" s="11"/>
       <c r="E240" s="11"/>
-      <c r="F240" s="16" t="s">
+      <c r="F240" s="1" t="s">
         <v>132</v>
       </c>
       <c r="G240" s="1" t="s">
@@ -4869,7 +4992,7 @@
       <c r="C241" s="11"/>
       <c r="D241" s="11"/>
       <c r="E241" s="11"/>
-      <c r="F241" s="16" t="s">
+      <c r="F241" s="1" t="s">
         <v>134</v>
       </c>
       <c r="G241" s="1" t="s">
@@ -4883,7 +5006,7 @@
       <c r="C242" s="11"/>
       <c r="D242" s="11"/>
       <c r="E242" s="11"/>
-      <c r="F242" s="16" t="s">
+      <c r="F242" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G242" s="1" t="s">
@@ -4897,7 +5020,7 @@
       <c r="C243" s="11"/>
       <c r="D243" s="11"/>
       <c r="E243" s="11"/>
-      <c r="F243" s="16" t="s">
+      <c r="F243" s="1" t="s">
         <v>159</v>
       </c>
       <c r="G243" s="1" t="s">
@@ -4911,7 +5034,7 @@
       <c r="C244" s="11"/>
       <c r="D244" s="11"/>
       <c r="E244" s="11"/>
-      <c r="F244" s="16" t="s">
+      <c r="F244" s="1" t="s">
         <v>161</v>
       </c>
       <c r="G244" s="1" t="s">
@@ -4925,7 +5048,7 @@
       <c r="C245" s="11"/>
       <c r="D245" s="11"/>
       <c r="E245" s="11"/>
-      <c r="F245" s="16" t="s">
+      <c r="F245" s="1" t="s">
         <v>163</v>
       </c>
       <c r="G245" s="1" t="s">
@@ -4939,7 +5062,7 @@
       <c r="C246" s="11"/>
       <c r="D246" s="11"/>
       <c r="E246" s="11"/>
-      <c r="F246" s="16" t="s">
+      <c r="F246" s="1" t="s">
         <v>165</v>
       </c>
       <c r="G246" s="1" t="s">
@@ -4953,7 +5076,7 @@
       <c r="C247" s="12"/>
       <c r="D247" s="12"/>
       <c r="E247" s="12"/>
-      <c r="F247" s="17" t="s">
+      <c r="F247" s="8" t="s">
         <v>167</v>
       </c>
       <c r="G247" s="8" t="s">
@@ -4977,7 +5100,7 @@
       <c r="E248" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F248" s="16" t="s">
+      <c r="F248" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G248" s="1" t="s">
@@ -4991,7 +5114,7 @@
       <c r="C249" s="11"/>
       <c r="D249" s="11"/>
       <c r="E249" s="11"/>
-      <c r="F249" s="16" t="s">
+      <c r="F249" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G249" s="1" t="s">
@@ -5005,7 +5128,7 @@
       <c r="C250" s="11"/>
       <c r="D250" s="11"/>
       <c r="E250" s="11"/>
-      <c r="F250" s="16" t="s">
+      <c r="F250" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G250" s="1" t="s">
@@ -5019,7 +5142,7 @@
       <c r="C251" s="11"/>
       <c r="D251" s="11"/>
       <c r="E251" s="11"/>
-      <c r="F251" s="16" t="s">
+      <c r="F251" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G251" s="1" t="s">
@@ -5033,7 +5156,7 @@
       <c r="C252" s="11"/>
       <c r="D252" s="11"/>
       <c r="E252" s="11"/>
-      <c r="F252" s="16" t="s">
+      <c r="F252" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G252" s="1" t="s">
@@ -5047,7 +5170,7 @@
       <c r="C253" s="11"/>
       <c r="D253" s="11"/>
       <c r="E253" s="11"/>
-      <c r="F253" s="16" t="s">
+      <c r="F253" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G253" s="1" t="s">
@@ -5061,7 +5184,7 @@
       <c r="C254" s="11"/>
       <c r="D254" s="11"/>
       <c r="E254" s="11"/>
-      <c r="F254" s="16" t="s">
+      <c r="F254" s="1" t="s">
         <v>132</v>
       </c>
       <c r="G254" s="1" t="s">
@@ -5075,7 +5198,7 @@
       <c r="C255" s="11"/>
       <c r="D255" s="11"/>
       <c r="E255" s="11"/>
-      <c r="F255" s="16" t="s">
+      <c r="F255" s="1" t="s">
         <v>134</v>
       </c>
       <c r="G255" s="1" t="s">
@@ -5089,7 +5212,7 @@
       <c r="C256" s="11"/>
       <c r="D256" s="11"/>
       <c r="E256" s="11"/>
-      <c r="F256" s="16" t="s">
+      <c r="F256" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G256" s="1" t="s">
@@ -5103,7 +5226,7 @@
       <c r="C257" s="11"/>
       <c r="D257" s="11"/>
       <c r="E257" s="11"/>
-      <c r="F257" s="16" t="s">
+      <c r="F257" s="1" t="s">
         <v>159</v>
       </c>
       <c r="G257" s="1" t="s">
@@ -5117,7 +5240,7 @@
       <c r="C258" s="11"/>
       <c r="D258" s="11"/>
       <c r="E258" s="11"/>
-      <c r="F258" s="16" t="s">
+      <c r="F258" s="1" t="s">
         <v>161</v>
       </c>
       <c r="G258" s="1" t="s">
@@ -5131,7 +5254,7 @@
       <c r="C259" s="11"/>
       <c r="D259" s="11"/>
       <c r="E259" s="11"/>
-      <c r="F259" s="16" t="s">
+      <c r="F259" s="1" t="s">
         <v>163</v>
       </c>
       <c r="G259" s="1" t="s">
@@ -5145,7 +5268,7 @@
       <c r="C260" s="11"/>
       <c r="D260" s="11"/>
       <c r="E260" s="11"/>
-      <c r="F260" s="16" t="s">
+      <c r="F260" s="1" t="s">
         <v>170</v>
       </c>
       <c r="G260" s="1" t="s">
@@ -5159,7 +5282,7 @@
       <c r="C261" s="11"/>
       <c r="D261" s="11"/>
       <c r="E261" s="11"/>
-      <c r="F261" s="17" t="s">
+      <c r="F261" s="8" t="s">
         <v>172</v>
       </c>
       <c r="G261" s="8" t="s">
@@ -5173,7 +5296,7 @@
       <c r="C262" s="12"/>
       <c r="D262" s="12"/>
       <c r="E262" s="12"/>
-      <c r="F262" s="17" t="s">
+      <c r="F262" s="8" t="s">
         <v>174</v>
       </c>
       <c r="G262" s="8" t="s">
@@ -5197,7 +5320,7 @@
       <c r="E263" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F263" s="16" t="s">
+      <c r="F263" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G263" s="1" t="s">
@@ -5211,7 +5334,7 @@
       <c r="C264" s="11"/>
       <c r="D264" s="11"/>
       <c r="E264" s="11"/>
-      <c r="F264" s="16" t="s">
+      <c r="F264" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G264" s="1" t="s">
@@ -5225,7 +5348,7 @@
       <c r="C265" s="11"/>
       <c r="D265" s="11"/>
       <c r="E265" s="11"/>
-      <c r="F265" s="16" t="s">
+      <c r="F265" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G265" s="1" t="s">
@@ -5239,7 +5362,7 @@
       <c r="C266" s="11"/>
       <c r="D266" s="11"/>
       <c r="E266" s="11"/>
-      <c r="F266" s="16" t="s">
+      <c r="F266" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G266" s="1" t="s">
@@ -5253,7 +5376,7 @@
       <c r="C267" s="11"/>
       <c r="D267" s="11"/>
       <c r="E267" s="11"/>
-      <c r="F267" s="16" t="s">
+      <c r="F267" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G267" s="1" t="s">
@@ -5267,7 +5390,7 @@
       <c r="C268" s="11"/>
       <c r="D268" s="11"/>
       <c r="E268" s="11"/>
-      <c r="F268" s="16" t="s">
+      <c r="F268" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G268" s="1" t="s">
@@ -5281,7 +5404,7 @@
       <c r="C269" s="11"/>
       <c r="D269" s="11"/>
       <c r="E269" s="11"/>
-      <c r="F269" s="16" t="s">
+      <c r="F269" s="1" t="s">
         <v>132</v>
       </c>
       <c r="G269" s="1" t="s">
@@ -5295,7 +5418,7 @@
       <c r="C270" s="11"/>
       <c r="D270" s="11"/>
       <c r="E270" s="11"/>
-      <c r="F270" s="16" t="s">
+      <c r="F270" s="1" t="s">
         <v>134</v>
       </c>
       <c r="G270" s="1" t="s">
@@ -5309,7 +5432,7 @@
       <c r="C271" s="11"/>
       <c r="D271" s="11"/>
       <c r="E271" s="11"/>
-      <c r="F271" s="16" t="s">
+      <c r="F271" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G271" s="1" t="s">
@@ -5323,7 +5446,7 @@
       <c r="C272" s="11"/>
       <c r="D272" s="11"/>
       <c r="E272" s="11"/>
-      <c r="F272" s="16" t="s">
+      <c r="F272" s="1" t="s">
         <v>159</v>
       </c>
       <c r="G272" s="1" t="s">
@@ -5337,7 +5460,7 @@
       <c r="C273" s="11"/>
       <c r="D273" s="11"/>
       <c r="E273" s="11"/>
-      <c r="F273" s="16" t="s">
+      <c r="F273" s="1" t="s">
         <v>161</v>
       </c>
       <c r="G273" s="1" t="s">
@@ -5351,7 +5474,7 @@
       <c r="C274" s="11"/>
       <c r="D274" s="11"/>
       <c r="E274" s="11"/>
-      <c r="F274" s="16" t="s">
+      <c r="F274" s="1" t="s">
         <v>163</v>
       </c>
       <c r="G274" s="1" t="s">
@@ -5365,7 +5488,7 @@
       <c r="C275" s="11"/>
       <c r="D275" s="11"/>
       <c r="E275" s="11"/>
-      <c r="F275" s="16" t="s">
+      <c r="F275" s="1" t="s">
         <v>170</v>
       </c>
       <c r="G275" s="1" t="s">
@@ -5379,7 +5502,7 @@
       <c r="C276" s="11"/>
       <c r="D276" s="11"/>
       <c r="E276" s="11"/>
-      <c r="F276" s="17" t="s">
+      <c r="F276" s="8" t="s">
         <v>177</v>
       </c>
       <c r="G276" s="8" t="s">
@@ -5393,7 +5516,7 @@
       <c r="C277" s="11"/>
       <c r="D277" s="11"/>
       <c r="E277" s="11"/>
-      <c r="F277" s="16" t="s">
+      <c r="F277" s="1" t="s">
         <v>179</v>
       </c>
       <c r="G277" s="1" t="s">
@@ -5407,7 +5530,7 @@
       <c r="C278" s="12"/>
       <c r="D278" s="12"/>
       <c r="E278" s="12"/>
-      <c r="F278" s="17" t="s">
+      <c r="F278" s="8" t="s">
         <v>181</v>
       </c>
       <c r="G278" s="8" t="s">
@@ -5431,7 +5554,7 @@
       <c r="E279" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F279" s="16" t="s">
+      <c r="F279" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G279" s="1" t="s">
@@ -5445,7 +5568,7 @@
       <c r="C280" s="11"/>
       <c r="D280" s="11"/>
       <c r="E280" s="11"/>
-      <c r="F280" s="16" t="s">
+      <c r="F280" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G280" s="1" t="s">
@@ -5459,7 +5582,7 @@
       <c r="C281" s="11"/>
       <c r="D281" s="11"/>
       <c r="E281" s="11"/>
-      <c r="F281" s="16" t="s">
+      <c r="F281" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G281" s="1" t="s">
@@ -5473,7 +5596,7 @@
       <c r="C282" s="11"/>
       <c r="D282" s="11"/>
       <c r="E282" s="11"/>
-      <c r="F282" s="16" t="s">
+      <c r="F282" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G282" s="1" t="s">
@@ -5487,7 +5610,7 @@
       <c r="C283" s="11"/>
       <c r="D283" s="11"/>
       <c r="E283" s="11"/>
-      <c r="F283" s="16" t="s">
+      <c r="F283" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G283" s="1" t="s">
@@ -5501,7 +5624,7 @@
       <c r="C284" s="11"/>
       <c r="D284" s="11"/>
       <c r="E284" s="11"/>
-      <c r="F284" s="16" t="s">
+      <c r="F284" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G284" s="1" t="s">
@@ -5515,7 +5638,7 @@
       <c r="C285" s="11"/>
       <c r="D285" s="11"/>
       <c r="E285" s="11"/>
-      <c r="F285" s="16" t="s">
+      <c r="F285" s="1" t="s">
         <v>185</v>
       </c>
       <c r="G285" s="1" t="s">
@@ -5529,7 +5652,7 @@
       <c r="C286" s="12"/>
       <c r="D286" s="12"/>
       <c r="E286" s="12"/>
-      <c r="F286" s="16" t="s">
+      <c r="F286" s="1" t="s">
         <v>187</v>
       </c>
       <c r="G286" s="1" t="s">
@@ -5553,7 +5676,7 @@
       <c r="E287" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F287" s="16" t="s">
+      <c r="F287" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G287" s="1" t="s">
@@ -5567,7 +5690,7 @@
       <c r="C288" s="11"/>
       <c r="D288" s="11"/>
       <c r="E288" s="11"/>
-      <c r="F288" s="16" t="s">
+      <c r="F288" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G288" s="1" t="s">
@@ -5581,7 +5704,7 @@
       <c r="C289" s="11"/>
       <c r="D289" s="11"/>
       <c r="E289" s="11"/>
-      <c r="F289" s="16" t="s">
+      <c r="F289" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G289" s="1" t="s">
@@ -5595,7 +5718,7 @@
       <c r="C290" s="11"/>
       <c r="D290" s="11"/>
       <c r="E290" s="11"/>
-      <c r="F290" s="16" t="s">
+      <c r="F290" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G290" s="1" t="s">
@@ -5609,7 +5732,7 @@
       <c r="C291" s="11"/>
       <c r="D291" s="11"/>
       <c r="E291" s="11"/>
-      <c r="F291" s="16" t="s">
+      <c r="F291" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G291" s="1" t="s">
@@ -5623,7 +5746,7 @@
       <c r="C292" s="11"/>
       <c r="D292" s="11"/>
       <c r="E292" s="11"/>
-      <c r="F292" s="16" t="s">
+      <c r="F292" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G292" s="1" t="s">
@@ -5637,7 +5760,7 @@
       <c r="C293" s="11"/>
       <c r="D293" s="11"/>
       <c r="E293" s="11"/>
-      <c r="F293" s="16" t="s">
+      <c r="F293" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G293" s="1" t="s">
@@ -5651,7 +5774,7 @@
       <c r="C294" s="12"/>
       <c r="D294" s="12"/>
       <c r="E294" s="12"/>
-      <c r="F294" s="16" t="s">
+      <c r="F294" s="1" t="s">
         <v>191</v>
       </c>
       <c r="G294" s="1" t="s">
@@ -5675,7 +5798,7 @@
       <c r="E295" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F295" s="16" t="s">
+      <c r="F295" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G295" s="1" t="s">
@@ -5689,7 +5812,7 @@
       <c r="C296" s="11"/>
       <c r="D296" s="11"/>
       <c r="E296" s="11"/>
-      <c r="F296" s="16" t="s">
+      <c r="F296" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G296" s="1" t="s">
@@ -5703,7 +5826,7 @@
       <c r="C297" s="11"/>
       <c r="D297" s="11"/>
       <c r="E297" s="11"/>
-      <c r="F297" s="16" t="s">
+      <c r="F297" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G297" s="1" t="s">
@@ -5717,7 +5840,7 @@
       <c r="C298" s="11"/>
       <c r="D298" s="11"/>
       <c r="E298" s="11"/>
-      <c r="F298" s="16" t="s">
+      <c r="F298" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G298" s="1" t="s">
@@ -5731,7 +5854,7 @@
       <c r="C299" s="11"/>
       <c r="D299" s="11"/>
       <c r="E299" s="11"/>
-      <c r="F299" s="16" t="s">
+      <c r="F299" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G299" s="1" t="s">
@@ -5745,7 +5868,7 @@
       <c r="C300" s="11"/>
       <c r="D300" s="11"/>
       <c r="E300" s="11"/>
-      <c r="F300" s="16" t="s">
+      <c r="F300" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G300" s="1" t="s">
@@ -5759,7 +5882,7 @@
       <c r="C301" s="11"/>
       <c r="D301" s="11"/>
       <c r="E301" s="11"/>
-      <c r="F301" s="16" t="s">
+      <c r="F301" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G301" s="1" t="s">
@@ -5773,7 +5896,7 @@
       <c r="C302" s="12"/>
       <c r="D302" s="12"/>
       <c r="E302" s="12"/>
-      <c r="F302" s="16" t="s">
+      <c r="F302" s="1" t="s">
         <v>195</v>
       </c>
       <c r="G302" s="1" t="s">
@@ -5797,7 +5920,7 @@
       <c r="E303" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F303" s="16" t="s">
+      <c r="F303" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G303" s="1" t="s">
@@ -5811,7 +5934,7 @@
       <c r="C304" s="11"/>
       <c r="D304" s="11"/>
       <c r="E304" s="11"/>
-      <c r="F304" s="16" t="s">
+      <c r="F304" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G304" s="1" t="s">
@@ -5825,7 +5948,7 @@
       <c r="C305" s="11"/>
       <c r="D305" s="11"/>
       <c r="E305" s="11"/>
-      <c r="F305" s="16" t="s">
+      <c r="F305" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G305" s="1" t="s">
@@ -5839,7 +5962,7 @@
       <c r="C306" s="11"/>
       <c r="D306" s="11"/>
       <c r="E306" s="11"/>
-      <c r="F306" s="16" t="s">
+      <c r="F306" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G306" s="1" t="s">
@@ -5853,7 +5976,7 @@
       <c r="C307" s="11"/>
       <c r="D307" s="11"/>
       <c r="E307" s="11"/>
-      <c r="F307" s="16" t="s">
+      <c r="F307" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G307" s="1" t="s">
@@ -5867,7 +5990,7 @@
       <c r="C308" s="11"/>
       <c r="D308" s="11"/>
       <c r="E308" s="11"/>
-      <c r="F308" s="16" t="s">
+      <c r="F308" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G308" s="1" t="s">
@@ -5881,7 +6004,7 @@
       <c r="C309" s="11"/>
       <c r="D309" s="11"/>
       <c r="E309" s="11"/>
-      <c r="F309" s="16" t="s">
+      <c r="F309" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G309" s="1" t="s">
@@ -5895,7 +6018,7 @@
       <c r="C310" s="11"/>
       <c r="D310" s="11"/>
       <c r="E310" s="11"/>
-      <c r="F310" s="16" t="s">
+      <c r="F310" s="1" t="s">
         <v>199</v>
       </c>
       <c r="G310" s="1" t="s">
@@ -5909,7 +6032,7 @@
       <c r="C311" s="11"/>
       <c r="D311" s="11"/>
       <c r="E311" s="11"/>
-      <c r="F311" s="16" t="s">
+      <c r="F311" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G311" s="1" t="s">
@@ -5923,7 +6046,7 @@
       <c r="C312" s="11"/>
       <c r="D312" s="11"/>
       <c r="E312" s="11"/>
-      <c r="F312" s="16" t="s">
+      <c r="F312" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G312" s="1" t="s">
@@ -5937,7 +6060,7 @@
       <c r="C313" s="11"/>
       <c r="D313" s="11"/>
       <c r="E313" s="11"/>
-      <c r="F313" s="16" t="s">
+      <c r="F313" s="1" t="s">
         <v>60</v>
       </c>
       <c r="G313" s="1" t="s">
@@ -5951,7 +6074,7 @@
       <c r="C314" s="11"/>
       <c r="D314" s="11"/>
       <c r="E314" s="11"/>
-      <c r="F314" s="16" t="s">
+      <c r="F314" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G314" s="1" t="s">
@@ -5965,7 +6088,7 @@
       <c r="C315" s="12"/>
       <c r="D315" s="12"/>
       <c r="E315" s="12"/>
-      <c r="F315" s="16" t="s">
+      <c r="F315" s="1" t="s">
         <v>64</v>
       </c>
       <c r="G315" s="1" t="s">
@@ -5989,7 +6112,7 @@
       <c r="E316" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F316" s="16" t="s">
+      <c r="F316" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G316" s="1" t="s">
@@ -6003,7 +6126,7 @@
       <c r="C317" s="11"/>
       <c r="D317" s="11"/>
       <c r="E317" s="11"/>
-      <c r="F317" s="16" t="s">
+      <c r="F317" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G317" s="1" t="s">
@@ -6017,7 +6140,7 @@
       <c r="C318" s="11"/>
       <c r="D318" s="11"/>
       <c r="E318" s="11"/>
-      <c r="F318" s="16" t="s">
+      <c r="F318" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G318" s="1" t="s">
@@ -6031,7 +6154,7 @@
       <c r="C319" s="11"/>
       <c r="D319" s="11"/>
       <c r="E319" s="11"/>
-      <c r="F319" s="16" t="s">
+      <c r="F319" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G319" s="1" t="s">
@@ -6045,7 +6168,7 @@
       <c r="C320" s="11"/>
       <c r="D320" s="11"/>
       <c r="E320" s="11"/>
-      <c r="F320" s="16" t="s">
+      <c r="F320" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G320" s="1" t="s">
@@ -6059,7 +6182,7 @@
       <c r="C321" s="11"/>
       <c r="D321" s="11"/>
       <c r="E321" s="11"/>
-      <c r="F321" s="16" t="s">
+      <c r="F321" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G321" s="1" t="s">
@@ -6073,7 +6196,7 @@
       <c r="C322" s="11"/>
       <c r="D322" s="11"/>
       <c r="E322" s="11"/>
-      <c r="F322" s="16" t="s">
+      <c r="F322" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G322" s="1" t="s">
@@ -6087,7 +6210,7 @@
       <c r="C323" s="11"/>
       <c r="D323" s="11"/>
       <c r="E323" s="11"/>
-      <c r="F323" s="16" t="s">
+      <c r="F323" s="1" t="s">
         <v>204</v>
       </c>
       <c r="G323" s="1" t="s">
@@ -6101,7 +6224,7 @@
       <c r="C324" s="11"/>
       <c r="D324" s="11"/>
       <c r="E324" s="11"/>
-      <c r="F324" s="16" t="s">
+      <c r="F324" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G324" s="1" t="s">
@@ -6115,7 +6238,7 @@
       <c r="C325" s="11"/>
       <c r="D325" s="11"/>
       <c r="E325" s="11"/>
-      <c r="F325" s="16" t="s">
+      <c r="F325" s="1" t="s">
         <v>58</v>
       </c>
       <c r="G325" s="1" t="s">
@@ -6129,7 +6252,7 @@
       <c r="C326" s="11"/>
       <c r="D326" s="11"/>
       <c r="E326" s="11"/>
-      <c r="F326" s="16" t="s">
+      <c r="F326" s="1" t="s">
         <v>60</v>
       </c>
       <c r="G326" s="1" t="s">
@@ -6143,7 +6266,7 @@
       <c r="C327" s="11"/>
       <c r="D327" s="11"/>
       <c r="E327" s="11"/>
-      <c r="F327" s="16" t="s">
+      <c r="F327" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G327" s="1" t="s">
@@ -6157,7 +6280,7 @@
       <c r="C328" s="11"/>
       <c r="D328" s="11"/>
       <c r="E328" s="11"/>
-      <c r="F328" s="16" t="s">
+      <c r="F328" s="1" t="s">
         <v>64</v>
       </c>
       <c r="G328" s="1" t="s">
@@ -6171,7 +6294,7 @@
       <c r="C329" s="12"/>
       <c r="D329" s="12"/>
       <c r="E329" s="12"/>
-      <c r="F329" s="16" t="s">
+      <c r="F329" s="1" t="s">
         <v>206</v>
       </c>
       <c r="G329" s="9" t="s">
@@ -6195,7 +6318,7 @@
       <c r="E330" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F330" s="16" t="s">
+      <c r="F330" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G330" s="1" t="s">
@@ -6209,7 +6332,7 @@
       <c r="C331" s="11"/>
       <c r="D331" s="11"/>
       <c r="E331" s="11"/>
-      <c r="F331" s="16" t="s">
+      <c r="F331" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G331" s="1" t="s">
@@ -6223,7 +6346,7 @@
       <c r="C332" s="11"/>
       <c r="D332" s="11"/>
       <c r="E332" s="11"/>
-      <c r="F332" s="16" t="s">
+      <c r="F332" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G332" s="1" t="s">
@@ -6237,7 +6360,7 @@
       <c r="C333" s="11"/>
       <c r="D333" s="11"/>
       <c r="E333" s="11"/>
-      <c r="F333" s="16" t="s">
+      <c r="F333" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G333" s="1" t="s">
@@ -6251,7 +6374,7 @@
       <c r="C334" s="11"/>
       <c r="D334" s="11"/>
       <c r="E334" s="11"/>
-      <c r="F334" s="16" t="s">
+      <c r="F334" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G334" s="1" t="s">
@@ -6265,7 +6388,7 @@
       <c r="C335" s="11"/>
       <c r="D335" s="11"/>
       <c r="E335" s="11"/>
-      <c r="F335" s="16" t="s">
+      <c r="F335" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G335" s="1" t="s">
@@ -6279,7 +6402,7 @@
       <c r="C336" s="11"/>
       <c r="D336" s="11"/>
       <c r="E336" s="11"/>
-      <c r="F336" s="16" t="s">
+      <c r="F336" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G336" s="1" t="s">
@@ -6293,7 +6416,7 @@
       <c r="C337" s="11"/>
       <c r="D337" s="11"/>
       <c r="E337" s="11"/>
-      <c r="F337" s="16" t="s">
+      <c r="F337" s="1" t="s">
         <v>118</v>
       </c>
       <c r="G337" s="1" t="s">
@@ -6307,7 +6430,7 @@
       <c r="C338" s="11"/>
       <c r="D338" s="11"/>
       <c r="E338" s="11"/>
-      <c r="F338" s="16" t="s">
+      <c r="F338" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G338" s="1" t="s">
@@ -6321,7 +6444,7 @@
       <c r="C339" s="12"/>
       <c r="D339" s="12"/>
       <c r="E339" s="12"/>
-      <c r="F339" s="16" t="s">
+      <c r="F339" s="1" t="s">
         <v>108</v>
       </c>
       <c r="G339" s="1" t="s">
@@ -6330,7 +6453,230 @@
       <c r="H339" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="234">
+  <mergeCells count="235">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I67:I140"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="A34:A46"/>
+    <mergeCell ref="B34:B46"/>
+    <mergeCell ref="C34:C46"/>
+    <mergeCell ref="D34:D46"/>
+    <mergeCell ref="E34:E46"/>
+    <mergeCell ref="H34:H46"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="B60:B66"/>
+    <mergeCell ref="C60:C66"/>
+    <mergeCell ref="D60:D66"/>
+    <mergeCell ref="E60:E66"/>
+    <mergeCell ref="H60:H66"/>
+    <mergeCell ref="A47:A59"/>
+    <mergeCell ref="B47:B59"/>
+    <mergeCell ref="C47:C59"/>
+    <mergeCell ref="D47:D59"/>
+    <mergeCell ref="E47:E59"/>
+    <mergeCell ref="H47:H59"/>
+    <mergeCell ref="A75:A82"/>
+    <mergeCell ref="B75:B82"/>
+    <mergeCell ref="C75:C82"/>
+    <mergeCell ref="D75:D82"/>
+    <mergeCell ref="E75:E82"/>
+    <mergeCell ref="H75:H82"/>
+    <mergeCell ref="A67:A74"/>
+    <mergeCell ref="B67:B74"/>
+    <mergeCell ref="C67:C74"/>
+    <mergeCell ref="D67:D74"/>
+    <mergeCell ref="E67:E74"/>
+    <mergeCell ref="H67:H74"/>
+    <mergeCell ref="A91:A98"/>
+    <mergeCell ref="B91:B98"/>
+    <mergeCell ref="C91:C98"/>
+    <mergeCell ref="D91:D98"/>
+    <mergeCell ref="E91:E98"/>
+    <mergeCell ref="H91:H98"/>
+    <mergeCell ref="A83:A90"/>
+    <mergeCell ref="B83:B90"/>
+    <mergeCell ref="C83:C90"/>
+    <mergeCell ref="D83:D90"/>
+    <mergeCell ref="E83:E90"/>
+    <mergeCell ref="H83:H90"/>
+    <mergeCell ref="A107:A114"/>
+    <mergeCell ref="B107:B114"/>
+    <mergeCell ref="C107:C114"/>
+    <mergeCell ref="D107:D114"/>
+    <mergeCell ref="E107:E114"/>
+    <mergeCell ref="H107:H114"/>
+    <mergeCell ref="A99:A106"/>
+    <mergeCell ref="B99:B106"/>
+    <mergeCell ref="C99:C106"/>
+    <mergeCell ref="D99:D106"/>
+    <mergeCell ref="E99:E106"/>
+    <mergeCell ref="H99:H106"/>
+    <mergeCell ref="A123:A130"/>
+    <mergeCell ref="B123:B130"/>
+    <mergeCell ref="C123:C130"/>
+    <mergeCell ref="D123:D130"/>
+    <mergeCell ref="E123:E130"/>
+    <mergeCell ref="H123:H130"/>
+    <mergeCell ref="A115:A122"/>
+    <mergeCell ref="B115:B122"/>
+    <mergeCell ref="C115:C122"/>
+    <mergeCell ref="D115:D122"/>
+    <mergeCell ref="E115:E122"/>
+    <mergeCell ref="H115:H122"/>
+    <mergeCell ref="A141:A149"/>
+    <mergeCell ref="B141:B149"/>
+    <mergeCell ref="C141:C149"/>
+    <mergeCell ref="D141:D149"/>
+    <mergeCell ref="E141:E149"/>
+    <mergeCell ref="H141:H149"/>
+    <mergeCell ref="A131:A140"/>
+    <mergeCell ref="B131:B140"/>
+    <mergeCell ref="C131:C140"/>
+    <mergeCell ref="D131:D140"/>
+    <mergeCell ref="E131:E140"/>
+    <mergeCell ref="H131:H140"/>
+    <mergeCell ref="A159:A167"/>
+    <mergeCell ref="B159:B167"/>
+    <mergeCell ref="C159:C167"/>
+    <mergeCell ref="D159:D167"/>
+    <mergeCell ref="E159:E167"/>
+    <mergeCell ref="H159:H167"/>
+    <mergeCell ref="A150:A158"/>
+    <mergeCell ref="B150:B158"/>
+    <mergeCell ref="C150:C158"/>
+    <mergeCell ref="D150:D158"/>
+    <mergeCell ref="E150:E158"/>
+    <mergeCell ref="H150:H158"/>
+    <mergeCell ref="A177:A187"/>
+    <mergeCell ref="B177:B187"/>
+    <mergeCell ref="C177:C187"/>
+    <mergeCell ref="D177:D187"/>
+    <mergeCell ref="E177:E187"/>
+    <mergeCell ref="H177:H187"/>
+    <mergeCell ref="A168:A176"/>
+    <mergeCell ref="B168:B176"/>
+    <mergeCell ref="C168:C176"/>
+    <mergeCell ref="D168:D176"/>
+    <mergeCell ref="E168:E176"/>
+    <mergeCell ref="H168:H176"/>
+    <mergeCell ref="A197:A205"/>
+    <mergeCell ref="B197:B205"/>
+    <mergeCell ref="C197:C205"/>
+    <mergeCell ref="D197:D205"/>
+    <mergeCell ref="E197:E205"/>
+    <mergeCell ref="H197:H205"/>
+    <mergeCell ref="A188:A196"/>
+    <mergeCell ref="B188:B196"/>
+    <mergeCell ref="C188:C196"/>
+    <mergeCell ref="D188:D196"/>
+    <mergeCell ref="E188:E196"/>
+    <mergeCell ref="H188:H196"/>
+    <mergeCell ref="A215:A224"/>
+    <mergeCell ref="B215:B224"/>
+    <mergeCell ref="C215:C224"/>
+    <mergeCell ref="D215:D224"/>
+    <mergeCell ref="E215:E224"/>
+    <mergeCell ref="H215:H224"/>
+    <mergeCell ref="A206:A214"/>
+    <mergeCell ref="B206:B214"/>
+    <mergeCell ref="C206:C214"/>
+    <mergeCell ref="D206:D214"/>
+    <mergeCell ref="E206:E214"/>
+    <mergeCell ref="H206:H214"/>
+    <mergeCell ref="A234:A247"/>
+    <mergeCell ref="B234:B247"/>
+    <mergeCell ref="C234:C247"/>
+    <mergeCell ref="D234:D247"/>
+    <mergeCell ref="E234:E247"/>
+    <mergeCell ref="H234:H247"/>
+    <mergeCell ref="A225:A233"/>
+    <mergeCell ref="B225:B233"/>
+    <mergeCell ref="C225:C233"/>
+    <mergeCell ref="D225:D233"/>
+    <mergeCell ref="E225:E233"/>
+    <mergeCell ref="H225:H233"/>
+    <mergeCell ref="A263:A278"/>
+    <mergeCell ref="B263:B278"/>
+    <mergeCell ref="C263:C278"/>
+    <mergeCell ref="D263:D278"/>
+    <mergeCell ref="E263:E278"/>
+    <mergeCell ref="H263:H278"/>
+    <mergeCell ref="A248:A262"/>
+    <mergeCell ref="B248:B262"/>
+    <mergeCell ref="C248:C262"/>
+    <mergeCell ref="D248:D262"/>
+    <mergeCell ref="E248:E262"/>
+    <mergeCell ref="H248:H262"/>
+    <mergeCell ref="A287:A294"/>
+    <mergeCell ref="B287:B294"/>
+    <mergeCell ref="C287:C294"/>
+    <mergeCell ref="D287:D294"/>
+    <mergeCell ref="E287:E294"/>
+    <mergeCell ref="H287:H294"/>
+    <mergeCell ref="A279:A286"/>
+    <mergeCell ref="B279:B286"/>
+    <mergeCell ref="C279:C286"/>
+    <mergeCell ref="D279:D286"/>
+    <mergeCell ref="E279:E286"/>
+    <mergeCell ref="H279:H286"/>
+    <mergeCell ref="A303:A315"/>
+    <mergeCell ref="B303:B315"/>
+    <mergeCell ref="C303:C315"/>
+    <mergeCell ref="D303:D315"/>
+    <mergeCell ref="E303:E315"/>
+    <mergeCell ref="H303:H315"/>
+    <mergeCell ref="A295:A302"/>
+    <mergeCell ref="B295:B302"/>
+    <mergeCell ref="C295:C302"/>
+    <mergeCell ref="D295:D302"/>
+    <mergeCell ref="E295:E302"/>
+    <mergeCell ref="H295:H302"/>
     <mergeCell ref="A330:A339"/>
     <mergeCell ref="B330:B339"/>
     <mergeCell ref="C330:C339"/>
@@ -6343,229 +6689,8 @@
     <mergeCell ref="D316:D329"/>
     <mergeCell ref="E316:E329"/>
     <mergeCell ref="H316:H329"/>
-    <mergeCell ref="A303:A315"/>
-    <mergeCell ref="B303:B315"/>
-    <mergeCell ref="C303:C315"/>
-    <mergeCell ref="D303:D315"/>
-    <mergeCell ref="E303:E315"/>
-    <mergeCell ref="H303:H315"/>
-    <mergeCell ref="A295:A302"/>
-    <mergeCell ref="B295:B302"/>
-    <mergeCell ref="C295:C302"/>
-    <mergeCell ref="D295:D302"/>
-    <mergeCell ref="E295:E302"/>
-    <mergeCell ref="H295:H302"/>
-    <mergeCell ref="A287:A294"/>
-    <mergeCell ref="B287:B294"/>
-    <mergeCell ref="C287:C294"/>
-    <mergeCell ref="D287:D294"/>
-    <mergeCell ref="E287:E294"/>
-    <mergeCell ref="H287:H294"/>
-    <mergeCell ref="A279:A286"/>
-    <mergeCell ref="B279:B286"/>
-    <mergeCell ref="C279:C286"/>
-    <mergeCell ref="D279:D286"/>
-    <mergeCell ref="E279:E286"/>
-    <mergeCell ref="H279:H286"/>
-    <mergeCell ref="A263:A278"/>
-    <mergeCell ref="B263:B278"/>
-    <mergeCell ref="C263:C278"/>
-    <mergeCell ref="D263:D278"/>
-    <mergeCell ref="E263:E278"/>
-    <mergeCell ref="H263:H278"/>
-    <mergeCell ref="A248:A262"/>
-    <mergeCell ref="B248:B262"/>
-    <mergeCell ref="C248:C262"/>
-    <mergeCell ref="D248:D262"/>
-    <mergeCell ref="E248:E262"/>
-    <mergeCell ref="H248:H262"/>
-    <mergeCell ref="A234:A247"/>
-    <mergeCell ref="B234:B247"/>
-    <mergeCell ref="C234:C247"/>
-    <mergeCell ref="D234:D247"/>
-    <mergeCell ref="E234:E247"/>
-    <mergeCell ref="H234:H247"/>
-    <mergeCell ref="A225:A233"/>
-    <mergeCell ref="B225:B233"/>
-    <mergeCell ref="C225:C233"/>
-    <mergeCell ref="D225:D233"/>
-    <mergeCell ref="E225:E233"/>
-    <mergeCell ref="H225:H233"/>
-    <mergeCell ref="A215:A224"/>
-    <mergeCell ref="B215:B224"/>
-    <mergeCell ref="C215:C224"/>
-    <mergeCell ref="D215:D224"/>
-    <mergeCell ref="E215:E224"/>
-    <mergeCell ref="H215:H224"/>
-    <mergeCell ref="A206:A214"/>
-    <mergeCell ref="B206:B214"/>
-    <mergeCell ref="C206:C214"/>
-    <mergeCell ref="D206:D214"/>
-    <mergeCell ref="E206:E214"/>
-    <mergeCell ref="H206:H214"/>
-    <mergeCell ref="A197:A205"/>
-    <mergeCell ref="B197:B205"/>
-    <mergeCell ref="C197:C205"/>
-    <mergeCell ref="D197:D205"/>
-    <mergeCell ref="E197:E205"/>
-    <mergeCell ref="H197:H205"/>
-    <mergeCell ref="A188:A196"/>
-    <mergeCell ref="B188:B196"/>
-    <mergeCell ref="C188:C196"/>
-    <mergeCell ref="D188:D196"/>
-    <mergeCell ref="E188:E196"/>
-    <mergeCell ref="H188:H196"/>
-    <mergeCell ref="A177:A187"/>
-    <mergeCell ref="B177:B187"/>
-    <mergeCell ref="C177:C187"/>
-    <mergeCell ref="D177:D187"/>
-    <mergeCell ref="E177:E187"/>
-    <mergeCell ref="H177:H187"/>
-    <mergeCell ref="A168:A176"/>
-    <mergeCell ref="B168:B176"/>
-    <mergeCell ref="C168:C176"/>
-    <mergeCell ref="D168:D176"/>
-    <mergeCell ref="E168:E176"/>
-    <mergeCell ref="H168:H176"/>
-    <mergeCell ref="A159:A167"/>
-    <mergeCell ref="B159:B167"/>
-    <mergeCell ref="C159:C167"/>
-    <mergeCell ref="D159:D167"/>
-    <mergeCell ref="E159:E167"/>
-    <mergeCell ref="H159:H167"/>
-    <mergeCell ref="A150:A158"/>
-    <mergeCell ref="B150:B158"/>
-    <mergeCell ref="C150:C158"/>
-    <mergeCell ref="D150:D158"/>
-    <mergeCell ref="E150:E158"/>
-    <mergeCell ref="H150:H158"/>
-    <mergeCell ref="A141:A149"/>
-    <mergeCell ref="B141:B149"/>
-    <mergeCell ref="C141:C149"/>
-    <mergeCell ref="D141:D149"/>
-    <mergeCell ref="E141:E149"/>
-    <mergeCell ref="H141:H149"/>
-    <mergeCell ref="A131:A140"/>
-    <mergeCell ref="B131:B140"/>
-    <mergeCell ref="C131:C140"/>
-    <mergeCell ref="D131:D140"/>
-    <mergeCell ref="E131:E140"/>
-    <mergeCell ref="H131:H140"/>
-    <mergeCell ref="A123:A130"/>
-    <mergeCell ref="B123:B130"/>
-    <mergeCell ref="C123:C130"/>
-    <mergeCell ref="D123:D130"/>
-    <mergeCell ref="E123:E130"/>
-    <mergeCell ref="H123:H130"/>
-    <mergeCell ref="A115:A122"/>
-    <mergeCell ref="B115:B122"/>
-    <mergeCell ref="C115:C122"/>
-    <mergeCell ref="D115:D122"/>
-    <mergeCell ref="E115:E122"/>
-    <mergeCell ref="H115:H122"/>
-    <mergeCell ref="A107:A114"/>
-    <mergeCell ref="B107:B114"/>
-    <mergeCell ref="C107:C114"/>
-    <mergeCell ref="D107:D114"/>
-    <mergeCell ref="E107:E114"/>
-    <mergeCell ref="H107:H114"/>
-    <mergeCell ref="A99:A106"/>
-    <mergeCell ref="B99:B106"/>
-    <mergeCell ref="C99:C106"/>
-    <mergeCell ref="D99:D106"/>
-    <mergeCell ref="E99:E106"/>
-    <mergeCell ref="H99:H106"/>
-    <mergeCell ref="A91:A98"/>
-    <mergeCell ref="B91:B98"/>
-    <mergeCell ref="C91:C98"/>
-    <mergeCell ref="D91:D98"/>
-    <mergeCell ref="E91:E98"/>
-    <mergeCell ref="H91:H98"/>
-    <mergeCell ref="A83:A90"/>
-    <mergeCell ref="B83:B90"/>
-    <mergeCell ref="C83:C90"/>
-    <mergeCell ref="D83:D90"/>
-    <mergeCell ref="E83:E90"/>
-    <mergeCell ref="H83:H90"/>
-    <mergeCell ref="A75:A82"/>
-    <mergeCell ref="B75:B82"/>
-    <mergeCell ref="C75:C82"/>
-    <mergeCell ref="D75:D82"/>
-    <mergeCell ref="E75:E82"/>
-    <mergeCell ref="H75:H82"/>
-    <mergeCell ref="A67:A74"/>
-    <mergeCell ref="B67:B74"/>
-    <mergeCell ref="C67:C74"/>
-    <mergeCell ref="D67:D74"/>
-    <mergeCell ref="E67:E74"/>
-    <mergeCell ref="H67:H74"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="B60:B66"/>
-    <mergeCell ref="C60:C66"/>
-    <mergeCell ref="D60:D66"/>
-    <mergeCell ref="E60:E66"/>
-    <mergeCell ref="H60:H66"/>
-    <mergeCell ref="A47:A59"/>
-    <mergeCell ref="B47:B59"/>
-    <mergeCell ref="C47:C59"/>
-    <mergeCell ref="D47:D59"/>
-    <mergeCell ref="E47:E59"/>
-    <mergeCell ref="H47:H59"/>
-    <mergeCell ref="A34:A46"/>
-    <mergeCell ref="B34:B46"/>
-    <mergeCell ref="C34:C46"/>
-    <mergeCell ref="D34:D46"/>
-    <mergeCell ref="E34:E46"/>
-    <mergeCell ref="H34:H46"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="H25:H29"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>